--- a/hourly datasets/cap_gen_year16final.xlsx
+++ b/hourly datasets/cap_gen_year16final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1089626141375284</v>
+        <v>0.1059284729039495</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001268939092040284</v>
+        <v>0.005697116712966829</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002870249919761089</v>
+        <v>0.0007490514149459492</v>
       </c>
       <c r="D3" t="n">
-        <v>1.385393462075194</v>
+        <v>5.121242706737477</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1711333913056743</v>
+        <v>0.06724021490028202</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.004356737023432815</v>
+        <v>0.004228997636287662</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006894615207513384</v>
+        <v>0.007165235789645995</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1102315532295687</v>
+        <v>0.1116255896169164</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.003696600084734442</v>
+        <v>0.008152729322212766</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003912323300593968</v>
+        <v>0.001337471587661834</v>
       </c>
       <c r="D4" t="n">
-        <v>1.691333882118564</v>
+        <v>5.495322936491093</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1295985296251937</v>
+        <v>0.06074208409273012</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.003971558853110907</v>
+        <v>0.005531324789590864</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01136475902257979</v>
+        <v>0.01077413385483467</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1126592142222628</v>
+        <v>0.1140812022261623</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003935885913339029</v>
+        <v>0.01221126351024392</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006694535282508783</v>
+        <v>0.006873872428501557</v>
       </c>
       <c r="D5" t="n">
-        <v>1.055343819128936</v>
+        <v>4.762879975651003</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1158265011739454</v>
+        <v>0.1459366223318906</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.009185391274873221</v>
+        <v>-0.001261331335154671</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01705716310155127</v>
+        <v>0.02568385835564252</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1128985000508674</v>
+        <v>0.1181397364141935</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00116421518554422</v>
+        <v>0.01225744341491095</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003327847249483476</v>
+        <v>0.003235812952605201</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4315749440198898</v>
+        <v>3.152175087274364</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06369504118538175</v>
+        <v>0.06848290591496634</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.00535837047856517</v>
+        <v>0.005915348277778384</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007686800849653608</v>
+        <v>0.01859953855204351</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1101268293230726</v>
+        <v>0.1181859163188605</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002455833916960766</v>
+        <v>0.01136641791412235</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002640594861144437</v>
+        <v>0.002952467626870178</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7281195822950458</v>
+        <v>2.986788412109476</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04387245410297694</v>
+        <v>0.01082846962630187</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.002719734606263623</v>
+        <v>0.005579670892552515</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007631402440185153</v>
+        <v>0.01715316493569218</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1114184480544891</v>
+        <v>0.1172948908180719</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.003031147163118661</v>
+        <v>0.01208888530555888</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001884699732900436</v>
+        <v>0.002308071774037399</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6355415435963256</v>
+        <v>2.748036709434197</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03407008100712296</v>
+        <v>0.02662049954933978</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0006628675745716415</v>
+        <v>0.007565134630410122</v>
       </c>
       <c r="G8" t="n">
-        <v>0.006725161900808964</v>
+        <v>0.01661263598070764</v>
       </c>
       <c r="H8" t="n">
-        <v>0.111993761300647</v>
+        <v>0.1180173582095084</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.002926208728904381</v>
+        <v>0.008387450226873684</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003499927859293822</v>
+        <v>0.004701658509627594</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1104175463261522</v>
+        <v>1.638319251714986</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05364529140379198</v>
+        <v>0.06007979086243981</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.003933643889584189</v>
+        <v>-0.0008276573458938054</v>
       </c>
       <c r="G9" t="n">
-        <v>0.009786061347392953</v>
+        <v>0.01760255779964117</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1118888228664328</v>
+        <v>0.1143159231308232</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1089626141375284</v>
+        <v>-0.1059284729039495</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001882392236918594</v>
+        <v>0.0005319173889280426</v>
       </c>
       <c r="D10" t="n">
-        <v>-103.296198112478</v>
+        <v>-221.2603094004441</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0009996224691846117</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1126521012451693</v>
+        <v>-0.1069710153701096</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1052731270298874</v>
+        <v>-0.1048859304377894</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04994395656613189</v>
+        <v>-0.0505401812519105</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001993129233934024</v>
+        <v>0.0005752973280551824</v>
       </c>
       <c r="D11" t="n">
-        <v>-41.72633575908618</v>
+        <v>-95.29271873177335</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001504993398390974</v>
+        <v>5.301902137264934e-183</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05385048783723915</v>
+        <v>-0.0516677471240825</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04603742529502464</v>
+        <v>-0.04941261537973848</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05901865757139649</v>
+        <v>0.05538829165203905</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03741121523901452</v>
+        <v>-0.03924514760045478</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001940629081776401</v>
+        <v>0.0005514303451821708</v>
       </c>
       <c r="D12" t="n">
-        <v>-34.12412091375989</v>
+        <v>-76.75585415038296</v>
       </c>
       <c r="E12" t="n">
-        <v>0.009718884728018566</v>
+        <v>2.278889107319344e-105</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.04121484649657198</v>
+        <v>-0.04032593489731532</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03360758398145705</v>
+        <v>-0.03816436030359425</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07155139889851386</v>
+        <v>0.06668332530349477</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03401494608212897</v>
+        <v>-0.03577771674960952</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001926735701287349</v>
+        <v>0.0005459076748464473</v>
       </c>
       <c r="D13" t="n">
-        <v>-31.06345355679534</v>
+        <v>-70.20722794576045</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03146934808231021</v>
+        <v>5.209872167739041e-89</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03779134650666029</v>
+        <v>-0.03684767976462736</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03023854565759768</v>
+        <v>-0.03470775373459169</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0749476680553994</v>
+        <v>0.07015075615434002</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02952208306783372</v>
+        <v>-0.03137846230243427</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001926798056298006</v>
+        <v>0.0005367404804594845</v>
       </c>
       <c r="D14" t="n">
-        <v>-28.56093366176193</v>
+        <v>-63.59836359913692</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0211264562521172</v>
+        <v>1.434082905331789e-16</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03329860590390613</v>
+        <v>-0.03243045788956587</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02574556023176127</v>
+        <v>-0.03032646671530268</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07944053106969466</v>
+        <v>0.07455001060151528</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02686856081856118</v>
+        <v>-0.0289721421231689</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001890653964685041</v>
+        <v>0.0005280113599322924</v>
       </c>
       <c r="D15" t="n">
-        <v>-25.81316175732768</v>
+        <v>-58.81867679573283</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03940258891821728</v>
+        <v>1.579264733050728e-32</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.03057424113633632</v>
+        <v>-0.03000702889449998</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02316288050078605</v>
+        <v>-0.02793725535183783</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0820940533189672</v>
+        <v>0.07695633078078065</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02412038266482467</v>
+        <v>-0.02750203918285931</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001884253043284169</v>
+        <v>0.0005251949708560035</v>
       </c>
       <c r="D16" t="n">
-        <v>-22.88428538729699</v>
+        <v>-56.25185481906498</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03387246833923293</v>
+        <v>9.186402907995585e-14</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02781351725374943</v>
+        <v>-0.02853140591240675</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.0204272480758999</v>
+        <v>-0.02647267245331187</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08484223147270371</v>
+        <v>0.07842643372109025</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02241070446192404</v>
+        <v>-0.02546824286065745</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001906878999133938</v>
+        <v>0.0005342416321700299</v>
       </c>
       <c r="D17" t="n">
-        <v>-21.4217522110811</v>
+        <v>-51.1574066992342</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04178814183971708</v>
+        <v>2.936017371591967e-07</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02614818597492626</v>
+        <v>-0.02651534078211408</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01867322294892183</v>
+        <v>-0.0244211449392008</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08655190967560433</v>
+        <v>0.0804602300432921</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01940114457404251</v>
+        <v>-0.02262277342282905</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001915030948621201</v>
+        <v>0.0005329701905898541</v>
       </c>
       <c r="D18" t="n">
-        <v>-18.37246849607081</v>
+        <v>-44.94770975042273</v>
       </c>
       <c r="E18" t="n">
-        <v>0.06242542173413695</v>
+        <v>0.03244842495338483</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02315460395824311</v>
+        <v>-0.02366737935363432</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01564768518984191</v>
+        <v>-0.02157816749202379</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08956146956348586</v>
+        <v>0.0833056994811205</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01534710994865654</v>
+        <v>-0.01892621495415249</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001913681433126799</v>
+        <v>0.0005276324108027382</v>
       </c>
       <c r="D19" t="n">
-        <v>-13.84842427645709</v>
+        <v>-37.24444043834239</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06938342061979999</v>
+        <v>0.0003565824974255133</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01909792427822305</v>
+        <v>-0.01996035900883707</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01159629561909005</v>
+        <v>-0.01789207089946792</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09361550418887184</v>
+        <v>0.08700225794979706</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01216513440652559</v>
+        <v>-0.01570785091646774</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001940181323294084</v>
+        <v>0.0005430917219379897</v>
       </c>
       <c r="D20" t="n">
-        <v>-10.46718816347008</v>
+        <v>-28.81888216264499</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06139856889268563</v>
+        <v>0.05874676758181339</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01596788847326988</v>
+        <v>-0.01677229477380077</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.008362380339781301</v>
+        <v>-0.0146434070591347</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09679747973100279</v>
+        <v>0.09022062198748182</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.00966769213553473</v>
+        <v>-0.0136455070299031</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001961253929678858</v>
+        <v>0.0005521607385374306</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.07737107292192</v>
+        <v>-22.90470114236884</v>
       </c>
       <c r="E21" t="n">
-        <v>0.07633895846344599</v>
+        <v>0.09340033721905226</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01351174839178573</v>
+        <v>-0.01472772588841303</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.005823635879283734</v>
+        <v>-0.01256328817139317</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09929492200199365</v>
+        <v>0.09228296587404645</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.007025211976785455</v>
+        <v>-0.01144997290304208</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001965228255892782</v>
+        <v>0.0005508601744417244</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.620853147242928</v>
+        <v>-18.51328666375814</v>
       </c>
       <c r="E22" t="n">
-        <v>0.07704528862625623</v>
+        <v>0.06127779573725212</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01087705785162593</v>
+        <v>-0.01252964268663251</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.003173366101944983</v>
+        <v>-0.01037030311945164</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1019374021607429</v>
+        <v>0.09447850000090748</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.006026521730028878</v>
+        <v>-0.01021020149541067</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001992745710654798</v>
+        <v>0.0005569828254148677</v>
       </c>
       <c r="D23" t="n">
-        <v>-3.699242617123199</v>
+        <v>-16.22444714055327</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1439659256321279</v>
+        <v>0.05607413366788849</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.00993230173782632</v>
+        <v>-0.01130187152770395</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.002120741722231441</v>
+        <v>-0.009118531463117391</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1029360924074995</v>
+        <v>0.09571827140853888</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.004112417756736686</v>
+        <v>-0.008718534987623039</v>
       </c>
       <c r="C24" t="n">
-        <v>0.002023612406468092</v>
+        <v>0.000552342838046243</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.242150414860421</v>
+        <v>-12.9600644533773</v>
       </c>
       <c r="E24" t="n">
-        <v>0.119558941692078</v>
+        <v>0.08841046935965835</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.008078696974435466</v>
+        <v>-0.009801110764317524</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.0001461385390379047</v>
+        <v>-0.007635959210928555</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1048501963807917</v>
+        <v>0.09720993791632651</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.0009297451056731842</v>
+        <v>-0.005390714992994997</v>
       </c>
       <c r="C25" t="n">
-        <v>0.002011831319076593</v>
+        <v>0.0005480546881707046</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.6211146112743343</v>
+        <v>-6.897097142683885</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1152274899678688</v>
+        <v>0.02330089830328605</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.004872933208399939</v>
+        <v>-0.006464886107032022</v>
       </c>
       <c r="G25" t="n">
-        <v>0.003013442997053571</v>
+        <v>-0.004316543878957971</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1080328690318552</v>
+        <v>0.1005377579109546</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.007712784780172782</v>
+        <v>0.01616126310265665</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001904159642922714</v>
+        <v>0.005246430916884039</v>
       </c>
       <c r="D26" t="n">
-        <v>3.173676949363901</v>
+        <v>9.377127405638342</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02215681728482352</v>
+        <v>0.1132196034960564</v>
       </c>
       <c r="F26" t="n">
-        <v>0.003980624261145293</v>
+        <v>0.005878419296894312</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01144494529920027</v>
+        <v>0.02644410690841898</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1166753989177012</v>
+        <v>0.1220897360066062</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year16final.xlsx
+++ b/hourly datasets/cap_gen_year16final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1059284729039495</v>
+        <v>0.1029737137700875</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.005697116712966829</v>
+        <v>0.003431233323007319</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007490514149459492</v>
+        <v>0.0007481025916816592</v>
       </c>
       <c r="D3" t="n">
-        <v>5.121242706737477</v>
+        <v>3.391036662814328</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06724021490028202</v>
+        <v>0.07462516954502114</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004228997636287662</v>
+        <v>0.00196497292662135</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007165235789645995</v>
+        <v>0.004897493719393288</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1116255896169164</v>
+        <v>0.1064049470930948</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008152729322212766</v>
+        <v>0.005665190426027035</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001337471587661834</v>
+        <v>0.001103960000775613</v>
       </c>
       <c r="D4" t="n">
-        <v>5.495322936491093</v>
+        <v>3.769256046566231</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06074208409273012</v>
+        <v>0.007238110054154027</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005531324789590864</v>
+        <v>0.003501460736081837</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01077413385483467</v>
+        <v>0.007828920115972233</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1140812022261623</v>
+        <v>0.1086389041961145</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01221126351024392</v>
+        <v>0.007662105480110094</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006873872428501557</v>
+        <v>0.006580454376316973</v>
       </c>
       <c r="D5" t="n">
-        <v>4.762879975651003</v>
+        <v>4.443745650746059</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1459366223318906</v>
+        <v>0.05964337514990336</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.001261331335154671</v>
+        <v>-0.005235413187338471</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02568385835564252</v>
+        <v>0.02055962414755865</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1181397364141935</v>
+        <v>0.1106358192501976</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01225744341491095</v>
+        <v>0.008054044277903289</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003235812952605201</v>
+        <v>0.003047275812050183</v>
       </c>
       <c r="D6" t="n">
-        <v>3.152175087274364</v>
+        <v>2.437381961390144</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06848290591496634</v>
+        <v>0.1130880174825674</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005915348277778384</v>
+        <v>0.002081474611141065</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01859953855204351</v>
+        <v>0.01402661394466551</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1181859163188605</v>
+        <v>0.1110277580479908</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01136641791412235</v>
+        <v>0.006492131189698758</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002952467626870178</v>
+        <v>0.003656406623992247</v>
       </c>
       <c r="D7" t="n">
-        <v>2.986788412109476</v>
+        <v>2.284280313342965</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01082846962630187</v>
+        <v>0.05249430938098928</v>
       </c>
       <c r="F7" t="n">
-        <v>0.005579670892552515</v>
+        <v>-0.0006743174219718197</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01715316493569218</v>
+        <v>0.01365857980136934</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1172948908180719</v>
+        <v>0.1094658449597862</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01208888530555888</v>
+        <v>0.0002325880952197041</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002308071774037399</v>
+        <v>0.003350012445126629</v>
       </c>
       <c r="D8" t="n">
-        <v>2.748036709434197</v>
+        <v>0.9074283166358055</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02662049954933978</v>
+        <v>0.01353370720003995</v>
       </c>
       <c r="F8" t="n">
-        <v>0.007565134630410122</v>
+        <v>-0.006333338617203444</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01661263598070764</v>
+        <v>0.006798514807642852</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1180173582095084</v>
+        <v>0.1032063018653072</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.008387450226873684</v>
+        <v>-0.004836608284267368</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004701658509627594</v>
+        <v>0.006017307754042974</v>
       </c>
       <c r="D9" t="n">
-        <v>1.638319251714986</v>
+        <v>-0.4687389285481541</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06007979086243981</v>
+        <v>0.09806850286533231</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0008276573458938054</v>
+        <v>-0.01663035510988013</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01760255779964117</v>
+        <v>0.006957138541345392</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1143159231308232</v>
+        <v>0.09813710548582009</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1059284729039495</v>
+        <v>-0.1029737137700875</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005319173889280426</v>
+        <v>0.0005278124538163864</v>
       </c>
       <c r="D10" t="n">
-        <v>-221.2603094004441</v>
+        <v>-218.7214741826988</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1069710153701096</v>
+        <v>-0.1040082112170774</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1048859304377894</v>
+        <v>-0.1019392163230975</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0505401812519105</v>
+        <v>-0.04871069577306111</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005752973280551824</v>
+        <v>0.0005753228099933068</v>
       </c>
       <c r="D11" t="n">
-        <v>-95.29271873177335</v>
+        <v>-94.15533762275274</v>
       </c>
       <c r="E11" t="n">
-        <v>5.301902137264934e-183</v>
+        <v>1.436206877792226e-141</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0516677471240825</v>
+        <v>-0.04983831221516855</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04941261537973848</v>
+        <v>-0.04758307933095371</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05538829165203905</v>
+        <v>0.05426301799702635</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03924514760045478</v>
+        <v>-0.0373023934804177</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005514303451821708</v>
+        <v>0.0005518136638554223</v>
       </c>
       <c r="D12" t="n">
-        <v>-76.75585415038296</v>
+        <v>-76.38783317670494</v>
       </c>
       <c r="E12" t="n">
-        <v>2.278889107319344e-105</v>
+        <v>2.095949873611827e-93</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.04032593489731532</v>
+        <v>-0.0383839326746961</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03816436030359425</v>
+        <v>-0.03622085428613932</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06668332530349477</v>
+        <v>0.06567132028966977</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03577771674960952</v>
+        <v>-0.03426486532067102</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0005459076748464473</v>
+        <v>0.0005438403359831726</v>
       </c>
       <c r="D13" t="n">
-        <v>-70.20722794576045</v>
+        <v>-69.48652553830981</v>
       </c>
       <c r="E13" t="n">
-        <v>5.209872167739041e-89</v>
+        <v>6.2843336384912e-126</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03684767976462736</v>
+        <v>-0.03533077697940366</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03470775373459169</v>
+        <v>-0.03319895366193838</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07015075615434002</v>
+        <v>0.06870884844941644</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03137846230243427</v>
+        <v>-0.02899359136926597</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0005367404804594845</v>
+        <v>0.0005364092193386402</v>
       </c>
       <c r="D14" t="n">
-        <v>-63.59836359913692</v>
+        <v>-62.0392760974817</v>
       </c>
       <c r="E14" t="n">
-        <v>1.434082905331789e-16</v>
+        <v>9.980696107906107e-24</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03243045788956587</v>
+        <v>-0.0300449382664983</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.03032646671530268</v>
+        <v>-0.02794224447203366</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07455001060151528</v>
+        <v>0.07398012240082148</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0289721421231689</v>
+        <v>-0.02753103886782946</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0005280113599322924</v>
+        <v>0.0005300810121538516</v>
       </c>
       <c r="D15" t="n">
-        <v>-58.81867679573283</v>
+        <v>-58.68475231867457</v>
       </c>
       <c r="E15" t="n">
-        <v>1.579264733050728e-32</v>
+        <v>1.412056988824891e-91</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.03000702889449998</v>
+        <v>-0.02856998269590058</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02793725535183783</v>
+        <v>-0.02649209503975834</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07695633078078065</v>
+        <v>0.07544267490225801</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02750203918285931</v>
+        <v>-0.02602575836940362</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0005251949708560035</v>
+        <v>0.0005287990842466277</v>
       </c>
       <c r="D16" t="n">
-        <v>-56.25185481906498</v>
+        <v>-56.38252858563808</v>
       </c>
       <c r="E16" t="n">
-        <v>9.186402907995585e-14</v>
+        <v>2.428767757988647e-40</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02853140591240675</v>
+        <v>-0.02706218969754514</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02647267245331187</v>
+        <v>-0.02498932704126211</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07842643372109025</v>
+        <v>0.07694795540068385</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02546824286065745</v>
+        <v>-0.02271619206871754</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0005342416321700299</v>
+        <v>0.0005302969295688895</v>
       </c>
       <c r="D17" t="n">
-        <v>-51.1574066992342</v>
+        <v>-48.93156670695625</v>
       </c>
       <c r="E17" t="n">
-        <v>2.936017371591967e-07</v>
+        <v>1.347088817604351e-18</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02651534078211408</v>
+        <v>-0.02375555901388414</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0244211449392008</v>
+        <v>-0.02167682512355094</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0804602300432921</v>
+        <v>0.08025752170136992</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02262277342282905</v>
+        <v>-0.02024088465031307</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0005329701905898541</v>
+        <v>0.0005308106347880699</v>
       </c>
       <c r="D18" t="n">
-        <v>-44.94770975042273</v>
+        <v>-43.17704926604228</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03244842495338483</v>
+        <v>1.394395924625535e-24</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02366737935363432</v>
+        <v>-0.02128125843440894</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.02157816749202379</v>
+        <v>-0.01920051086621721</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0833056994811205</v>
+        <v>0.08273282911977439</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01892621495415249</v>
+        <v>-0.01655775741090776</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0005276324108027382</v>
+        <v>0.0005243191651158423</v>
       </c>
       <c r="D19" t="n">
-        <v>-37.24444043834239</v>
+        <v>-35.79443917802496</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0003565824974255133</v>
+        <v>6.851325550065515e-16</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01996035900883707</v>
+        <v>-0.01758540815042581</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01789207089946792</v>
+        <v>-0.0155301066713897</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08700225794979706</v>
+        <v>0.0864159563591797</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01570785091646774</v>
+        <v>-0.01266023222189442</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0005430917219379897</v>
+        <v>0.0005436735379099339</v>
       </c>
       <c r="D20" t="n">
-        <v>-28.81888216264499</v>
+        <v>-26.3340389304591</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05874676758181339</v>
+        <v>2.392863877171074e-09</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01677229477380077</v>
+        <v>-0.01372581702693637</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0146434070591347</v>
+        <v>-0.01159464741685248</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09022062198748182</v>
+        <v>0.09031348154819305</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.0136455070299031</v>
+        <v>-0.01104634946085597</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0005521607385374306</v>
+        <v>0.0005525552338659425</v>
       </c>
       <c r="D21" t="n">
-        <v>-22.90470114236884</v>
+        <v>-21.2020563024908</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09340033721905226</v>
+        <v>0.0103228344933354</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01472772588841303</v>
+        <v>-0.01212934214737444</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.01256328817139317</v>
+        <v>-0.009963356774337497</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09228296587404645</v>
+        <v>0.09192736430923149</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.01144997290304208</v>
+        <v>-0.009220348908698819</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0005508601744417244</v>
+        <v>0.0005511751000533689</v>
       </c>
       <c r="D22" t="n">
-        <v>-18.51328666375814</v>
+        <v>-17.32272123266688</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06127779573725212</v>
+        <v>0.002868812865964646</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01252964268663251</v>
+        <v>-0.01030063658503578</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.01037030311945164</v>
+        <v>-0.008140061232361854</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09447850000090748</v>
+        <v>0.09375336486138865</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.01021020149541067</v>
+        <v>-0.007465686235613245</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0005569828254148677</v>
+        <v>0.000563484478404118</v>
       </c>
       <c r="D23" t="n">
-        <v>-16.22444714055327</v>
+        <v>-14.06987070175272</v>
       </c>
       <c r="E23" t="n">
-        <v>0.05607413366788849</v>
+        <v>0.0200532219738901</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.01130187152770395</v>
+        <v>-0.008570100084666741</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.009118531463117391</v>
+        <v>-0.006361272386559746</v>
       </c>
       <c r="H23" t="n">
-        <v>0.09571827140853888</v>
+        <v>0.09550802753447421</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.008718534987623039</v>
+        <v>-0.006190484924485884</v>
       </c>
       <c r="C24" t="n">
-        <v>0.000552342838046243</v>
+        <v>0.0005539182490364956</v>
       </c>
       <c r="D24" t="n">
-        <v>-12.9600644533773</v>
+        <v>-11.69265422625853</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08841046935965835</v>
+        <v>0.1368963700359044</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.009801110764317524</v>
+        <v>-0.007276149154776881</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.007635959210928555</v>
+        <v>-0.005104820694194889</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09720993791632651</v>
+        <v>0.09678322884560157</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.005390714992994997</v>
+        <v>-0.00330116926249954</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0005480546881707046</v>
+        <v>0.0005492552842008773</v>
       </c>
       <c r="D25" t="n">
-        <v>-6.897097142683885</v>
+        <v>-5.840896993138846</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02330089830328605</v>
+        <v>0.01859033776113023</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.006464886107032022</v>
+        <v>-0.004377694153899298</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.004316543878957971</v>
+        <v>-0.002224644371099782</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1005377579109546</v>
+        <v>0.09967254450758792</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01616126310265665</v>
+        <v>-0.001130805085840392</v>
       </c>
       <c r="C26" t="n">
-        <v>0.005246430916884039</v>
+        <v>0.002531288570991843</v>
       </c>
       <c r="D26" t="n">
-        <v>9.377127405638342</v>
+        <v>3.086504614266828</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1132196034960564</v>
+        <v>0.1147834589899018</v>
       </c>
       <c r="F26" t="n">
-        <v>0.005878419296894312</v>
+        <v>-0.006092054306454538</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02644410690841898</v>
+        <v>0.003830444134773754</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1220897360066062</v>
+        <v>0.1018429086842471</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year16final.xlsx
+++ b/hourly datasets/cap_gen_year16final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>10%&gt;gen/cap&gt;5%</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,679 +490,565 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1029737137700875</v>
+        <v>0.1349076865171704</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.003431233323007319</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0007481025916816592</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.391036662814328</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.07462516954502114</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.00196497292662135</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.004897493719393288</v>
-      </c>
+        <v>0.1128106432342619</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.1064049470930948</v>
+        <v>0.2477183297514323</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005665190426027035</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.001103960000775613</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.769256046566231</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.007238110054154027</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.003501460736081837</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.007828920115972233</v>
-      </c>
+        <v>0.1023699780496768</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.1086389041961145</v>
+        <v>0.2372776645668472</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.007662105480110094</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.006580454376316973</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.443745650746059</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.05964337514990336</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.005235413187338471</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.02055962414755865</v>
-      </c>
+        <v>0.03385963791802653</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.1106358192501976</v>
+        <v>0.1687673244351969</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>120%&gt;gen/cap&gt;115%</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.008054044277903289</v>
+        <v>0.0178773681559088</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003047275812050183</v>
+        <v>0.001426983200496055</v>
       </c>
       <c r="D6" t="n">
-        <v>2.437381961390144</v>
+        <v>3.518689318930809</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1130880174825674</v>
+        <v>0.01597790571797602</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002081474611141065</v>
+        <v>0.01507510622598613</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01402661394466551</v>
+        <v>0.02067963008583136</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1110277580479908</v>
+        <v>0.1527850546730792</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>125%&gt;gen/cap&gt;120%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.006492131189698758</v>
+        <v>0.007630968659117403</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003656406623992247</v>
+        <v>0.001345776929888807</v>
       </c>
       <c r="D7" t="n">
-        <v>2.284280313342965</v>
+        <v>1.512265903572015</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05249430938098928</v>
+        <v>0.04275503156124088</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0006743174219718197</v>
+        <v>0.004989438507426113</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01365857980136934</v>
+        <v>0.01027249881080863</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1094658449597862</v>
+        <v>0.1425386551762878</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>130%&gt;gen/cap&gt;125%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0002325880952197041</v>
+        <v>0.007063460316424781</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003350012445126629</v>
+        <v>0.00110372748414485</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9074283166358055</v>
+        <v>1.482739716461699</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01353370720003995</v>
+        <v>0.01296890571286155</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.006333338617203444</v>
+        <v>0.004895537526912597</v>
       </c>
       <c r="G8" t="n">
-        <v>0.006798514807642852</v>
+        <v>0.009231383105937123</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1032063018653072</v>
+        <v>0.1419711468335951</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>135%&gt;gen/cap&gt;130%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.004836608284267368</v>
+        <v>0.0006567242794798048</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006017307754042974</v>
+        <v>0.00102842755336675</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.4687389285481541</v>
+        <v>0.7187004079536253</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09806850286533231</v>
+        <v>0.002194340304832899</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01663035510988013</v>
+        <v>-0.001363568046348865</v>
       </c>
       <c r="G9" t="n">
-        <v>0.006957138541345392</v>
+        <v>0.002677016605308557</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09813710548582009</v>
+        <v>0.1355644107966502</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1029737137700875</v>
+        <v>0.001462202991406562</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005278124538163864</v>
+        <v>0.00162475754437771</v>
       </c>
       <c r="D10" t="n">
-        <v>-218.7214741826988</v>
+        <v>0.8744455561656137</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.00167380792388125</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1040082112170774</v>
+        <v>-0.001730051608069309</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1019392163230975</v>
+        <v>0.004654457590882418</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1363698895085769</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>15%&gt;gen/cap&gt;10%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04871069577306111</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0005753228099933068</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-94.15533762275274</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.436206877792226e-141</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.04983831221516855</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.04758307933095371</v>
-      </c>
+        <v>0.02824998862173266</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.05426301799702635</v>
+        <v>0.163157675138903</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>20%&gt;gen/cap&gt;15%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0373023934804177</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0005518136638554223</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-76.38783317670494</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.095949873611827e-93</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.0383839326746961</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.03622085428613932</v>
-      </c>
+        <v>0.05217054474653685</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.06567132028966977</v>
+        <v>0.1870782312637072</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03426486532067102</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0005438403359831726</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-69.48652553830981</v>
-      </c>
-      <c r="E13" t="n">
-        <v>6.2843336384912e-126</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.03533077697940366</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.03319895366193838</v>
-      </c>
+        <v>0.0663975140750845</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.06870884844941644</v>
+        <v>0.2013052005922549</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02899359136926597</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0005364092193386402</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-62.0392760974817</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9.980696107906107e-24</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.0300449382664983</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.02794224447203366</v>
-      </c>
+        <v>0.07528989469249348</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.07398012240082148</v>
+        <v>0.2101975812096638</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02753103886782946</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0005300810121538516</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-58.68475231867457</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.412056988824891e-91</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.02856998269590058</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.02649209503975834</v>
-      </c>
+        <v>0.08294503956695118</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.07544267490225801</v>
+        <v>0.2178527260841215</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02602575836940362</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0005287990842466277</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-56.38252858563808</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2.428767757988647e-40</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.02706218969754514</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.02498932704126211</v>
-      </c>
+        <v>0.08682166127936934</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.07694795540068385</v>
+        <v>0.2217293477965397</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02271619206871754</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0005302969295688895</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-48.93156670695625</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.347088817604351e-18</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.02375555901388414</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.02167682512355094</v>
-      </c>
+        <v>0.08839801366777031</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.08025752170136992</v>
+        <v>0.2233057001849407</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>5%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02024088465031307</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0005308106347880699</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-43.17704926604228</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.394395924625535e-24</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.02128125843440894</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.01920051086621721</v>
-      </c>
+        <v>-0.1349076865171704</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>0.08273282911977439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01655775741090776</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0005243191651158423</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-35.79443917802496</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6.851325550065515e-16</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.01758540815042581</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.0155301066713897</v>
-      </c>
+        <v>0.0919081552270181</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.0864159563591797</v>
+        <v>0.2268158417441885</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01266023222189442</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0005436735379099339</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-26.3340389304591</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2.392863877171074e-09</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.01372581702693637</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.01159464741685248</v>
-      </c>
+        <v>0.0941034344889794</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.09031348154819305</v>
+        <v>0.2290111210061498</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01104634946085597</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0005525552338659425</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-21.2020563024908</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.0103228344933354</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.01212934214737444</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-0.009963356774337497</v>
-      </c>
+        <v>0.0983269210925653</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.09192736430923149</v>
+        <v>0.2332346076097357</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.009220348908698819</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0005511751000533689</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-17.32272123266688</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.002868812865964646</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.01030063658503578</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.008140061232361854</v>
-      </c>
+        <v>0.1037294039867353</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0.09375336486138865</v>
+        <v>0.2386370905039057</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.007465686235613245</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.000563484478404118</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-14.06987070175272</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.0200532219738901</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-0.008570100084666741</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-0.006361272386559746</v>
-      </c>
+        <v>0.1067563904712243</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.09550802753447421</v>
+        <v>0.2416640769883947</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.006190484924485884</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.0005539182490364956</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-11.69265422625853</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.1368963700359044</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.007276149154776881</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-0.005104820694194889</v>
-      </c>
+        <v>0.1100550197383912</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0.09678322884560157</v>
+        <v>0.2449627062555615</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>80%&gt;gen/cap&gt;75%</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.00330116926249954</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.0005492552842008773</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-5.840896993138846</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.01859033776113023</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-0.004377694153899298</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-0.002224644371099782</v>
-      </c>
+        <v>0.1112833767985046</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>0.09967254450758792</v>
+        <v>0.246191063315675</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>85%&gt;gen/cap&gt;80%</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1145335269467954</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>0.2494412134639657</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>90%&gt;gen/cap&gt;85%</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1193162130029871</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>484203044595.0384</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>0.2542238995201575</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>95%&gt;gen/cap&gt;90%</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1209880541798268</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>476004090.9001142</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>0.2558957406969971</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>gen/cap&gt;135%</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>-0.001130805085840392</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.002531288570991843</v>
-      </c>
-      <c r="D26" t="n">
-        <v>3.086504614266828</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.1147834589899018</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-0.006092054306454538</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.003830444134773754</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.1018429086842471</v>
+      <c r="B29" t="n">
+        <v>0.005406797147958851</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0007864009414501354</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.450905014567716</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0682720890084025</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.00386224242791647</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.006951351868001193</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1403144836651292</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year16final.xlsx
+++ b/hourly datasets/cap_gen_year16final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1349076865171704</v>
+        <v>0.1053331483093296</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1128106432342619</v>
+        <v>0.1136322875517179</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.2477183297514323</v>
+        <v>0.2189654358610475</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1023699780496768</v>
+        <v>0.1024582439816771</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -526,7 +526,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.2372776645668472</v>
+        <v>0.2077913922910067</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03385963791802653</v>
+        <v>0.04180458250060327</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -544,7 +544,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.1687673244351969</v>
+        <v>0.1471377308099329</v>
       </c>
     </row>
     <row r="6">
@@ -554,25 +554,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0178773681559088</v>
+        <v>0.02740139629355406</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001426983200496055</v>
+        <v>0.002515299710752093</v>
       </c>
       <c r="D6" t="n">
-        <v>3.518689318930809</v>
+        <v>3.993518845385184</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01597790571797602</v>
+        <v>0.01811784907453557</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01507510622598613</v>
+        <v>0.02246504313777602</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02067963008583136</v>
+        <v>0.03233774944933174</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1527850546730792</v>
+        <v>0.1327345446028836</v>
       </c>
     </row>
     <row r="7">
@@ -582,25 +582,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.007630968659117403</v>
+        <v>0.01935738793585521</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001345776929888807</v>
+        <v>0.002275165851404394</v>
       </c>
       <c r="D7" t="n">
-        <v>1.512265903572015</v>
+        <v>2.363449289881279</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04275503156124088</v>
+        <v>0.04304667101166117</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004989438507426113</v>
+        <v>0.01489348645498139</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01027249881080863</v>
+        <v>0.02382128941672922</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1425386551762878</v>
+        <v>0.1246905362451848</v>
       </c>
     </row>
     <row r="8">
@@ -610,25 +610,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.007063460316424781</v>
+        <v>0.01859274452294621</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00110372748414485</v>
+        <v>0.002034456734881975</v>
       </c>
       <c r="D8" t="n">
-        <v>1.482739716461699</v>
+        <v>2.305548800137076</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01296890571286155</v>
+        <v>0.0172915928024556</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004895537526912597</v>
+        <v>0.01459999903187738</v>
       </c>
       <c r="G8" t="n">
-        <v>0.009231383105937123</v>
+        <v>0.02258549001401522</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1419711468335951</v>
+        <v>0.1239258928322758</v>
       </c>
     </row>
     <row r="9">
@@ -638,25 +638,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0006567242794798048</v>
+        <v>0.01341835699473661</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00102842755336675</v>
+        <v>0.001917983871129994</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7187004079536253</v>
+        <v>1.958452738426621</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002194340304832899</v>
+        <v>0.00580895883881699</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001363568046348865</v>
+        <v>0.009653782993790718</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002677016605308557</v>
+        <v>0.0171829309956823</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1355644107966502</v>
+        <v>0.1187515053040662</v>
       </c>
     </row>
     <row r="10">
@@ -666,25 +666,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001462202991406562</v>
+        <v>0.01500699362001514</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00162475754437771</v>
+        <v>0.002552263456055266</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8744455561656137</v>
+        <v>2.12212481948439</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00167380792388125</v>
+        <v>0.00452888606977613</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.001730051608069309</v>
+        <v>0.009996370829102581</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004654457590882418</v>
+        <v>0.02001761641092765</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1363698895085769</v>
+        <v>0.1203401419293447</v>
       </c>
     </row>
     <row r="11">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02824998862173266</v>
+        <v>0.02943687797160316</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -702,7 +702,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.163157675138903</v>
+        <v>0.1347700262809327</v>
       </c>
     </row>
     <row r="12">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05217054474653685</v>
+        <v>0.0540681740750615</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -720,7 +720,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.1870782312637072</v>
+        <v>0.1594013223843911</v>
       </c>
     </row>
     <row r="13">
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0663975140750845</v>
+        <v>0.06931410665127544</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -738,7 +738,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.2013052005922549</v>
+        <v>0.174647254960605</v>
       </c>
     </row>
     <row r="14">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07528989469249348</v>
+        <v>0.07694405753430401</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -756,7 +756,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.2101975812096638</v>
+        <v>0.1822772058436336</v>
       </c>
     </row>
     <row r="15">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.08294503956695118</v>
+        <v>0.08434279519203611</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -774,7 +774,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.2178527260841215</v>
+        <v>0.1896759435013657</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08682166127936934</v>
+        <v>0.08793985650266503</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -792,7 +792,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.2217293477965397</v>
+        <v>0.1932730048119946</v>
       </c>
     </row>
     <row r="17">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08839801366777031</v>
+        <v>0.09051673174416253</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -810,7 +810,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.2233057001849407</v>
+        <v>0.1958498800534921</v>
       </c>
     </row>
     <row r="18">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1349076865171704</v>
+        <v>-0.1053331483093296</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0919081552270181</v>
+        <v>0.09212893575831305</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -846,7 +846,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.2268158417441885</v>
+        <v>0.1974620840676426</v>
       </c>
     </row>
     <row r="20">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0941034344889794</v>
+        <v>0.09550757932538084</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -864,7 +864,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.2290111210061498</v>
+        <v>0.2008407276347104</v>
       </c>
     </row>
     <row r="21">
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0983269210925653</v>
+        <v>0.1001145206728902</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -882,7 +882,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.2332346076097357</v>
+        <v>0.2054476689822198</v>
       </c>
     </row>
     <row r="22">
@@ -892,15 +892,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1037294039867353</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+        <v>0.1041123371286635</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.006734902740321215</v>
+      </c>
+      <c r="D22" t="n">
+        <v>235140220804.5638</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0321794941641154</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.09088387040358084</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1173408038537467</v>
+      </c>
       <c r="H22" t="n">
-        <v>0.2386370905039057</v>
+        <v>0.2094454854379931</v>
       </c>
     </row>
     <row r="23">
@@ -910,15 +920,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1067563904712243</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+        <v>0.1084776228961321</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.006985265189092959</v>
+      </c>
+      <c r="D23" t="n">
+        <v>359274961006.428</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.03653729407134387</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.09475932487961147</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1221959209126524</v>
+      </c>
       <c r="H23" t="n">
-        <v>0.2416640769883947</v>
+        <v>0.2138107712054617</v>
       </c>
     </row>
     <row r="24">
@@ -928,7 +948,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1100550197383912</v>
+        <v>0.1114466841574084</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -936,7 +956,7 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0.2449627062555615</v>
+        <v>0.2167798324667379</v>
       </c>
     </row>
     <row r="25">
@@ -946,15 +966,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1112833767985046</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+        <v>0.1130090738038105</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.007274955822356711</v>
+      </c>
+      <c r="D25" t="n">
+        <v>26.89075381159514</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.04669545581823498</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.09870644857410409</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1273116990335168</v>
+      </c>
       <c r="H25" t="n">
-        <v>0.246191063315675</v>
+        <v>0.21834222211314</v>
       </c>
     </row>
     <row r="26">
@@ -964,7 +994,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1145335269467954</v>
+        <v>0.1158079375841897</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -972,7 +1002,7 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>0.2494412134639657</v>
+        <v>0.2211410858935193</v>
       </c>
     </row>
     <row r="27">
@@ -982,21 +1012,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1193162130029871</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.1209846171645378</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.006979416414990986</v>
       </c>
       <c r="D27" t="n">
-        <v>484203044595.0384</v>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+        <v>26.73276823934978</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.05040596834229742</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1072698523614101</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1346993819676664</v>
+      </c>
       <c r="H27" t="n">
-        <v>0.2542238995201575</v>
+        <v>0.2263177654738673</v>
       </c>
     </row>
     <row r="28">
@@ -1006,21 +1040,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1209880541798268</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.1224983424820655</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.007210199647030541</v>
       </c>
       <c r="D28" t="n">
-        <v>476004090.9001142</v>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+        <v>25.46995059647357</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.08297233238895797</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.108347778023142</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1366489069409896</v>
+      </c>
       <c r="H28" t="n">
-        <v>0.2558957406969971</v>
+        <v>0.227831490791395</v>
       </c>
     </row>
     <row r="29">
@@ -1030,25 +1068,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.005406797147958851</v>
+        <v>0.01972539771923136</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0007864009414501354</v>
+        <v>0.001774406468956909</v>
       </c>
       <c r="D29" t="n">
-        <v>1.450905014567716</v>
+        <v>2.822369345998223</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0682720890084025</v>
+        <v>0.06167796232882037</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00386224242791647</v>
+        <v>0.0162356048534354</v>
       </c>
       <c r="G29" t="n">
-        <v>0.006951351868001193</v>
+        <v>0.02321519058502691</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1403144836651292</v>
+        <v>0.125058546028561</v>
       </c>
     </row>
   </sheetData>
